--- a/Survival/Assets/Excel/BuildItemSheet.xlsx
+++ b/Survival/Assets/Excel/BuildItemSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajin\Desktop\Unity\Unity_project\TeamProject_Survival\Survival\Survival\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08868E7-33FA-4E18-968E-B3CFC253D5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DD76F-9DDA-46EB-8080-8C079EA5316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87CC9680-1ADE-4891-8706-9F68FAE83D61}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87CC9680-1ADE-4891-8706-9F68FAE83D61}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildItemData" sheetId="2" r:id="rId1"/>
@@ -106,11 +106,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprite/well</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/well</t>
+    <t>Sprites/well</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/BuildItemPrefabs/well</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +498,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/Survival/Assets/Excel/BuildItemSheet.xlsx
+++ b/Survival/Assets/Excel/BuildItemSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajin\Desktop\Unity\Unity_project\TeamProject_Survival\Survival\Survival\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7DD76F-9DDA-46EB-8080-8C079EA5316A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3ECA14-F159-4EEB-A0E7-90A147ED174B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87CC9680-1ADE-4891-8706-9F68FAE83D61}"/>
+    <workbookView xWindow="-22644" yWindow="792" windowWidth="21000" windowHeight="12120" xr2:uid="{87CC9680-1ADE-4891-8706-9F68FAE83D61}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildItemData" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,11 +106,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sprites/well</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/BuildItemPrefabs/well</t>
+    <t>Prefabs/BuildItemPrefabs/Cabin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Cabin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Bed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/BuildItemPrefabs/Bed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/BuildItemPrefabs/Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprites/Table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +514,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -508,8 +524,8 @@
     <col min="5" max="5" width="16.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -564,10 +580,10 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -593,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -622,10 +638,10 @@
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
